--- a/limitation tribs.xlsx
+++ b/limitation tribs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/sarah_roley_wsu_edu/Documents/R Documents/Yakima-Ag-Sampling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah.roley\OneDrive - Washington State University (email.wsu.edu)\R Documents\Yakima-Ag-Sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -429,24 +429,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N2" sqref="N2:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" style="3"/>
     <col min="8" max="12" width="6.7109375" customWidth="1"/>
+    <col min="14" max="18" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +465,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,8 +483,13 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -490,8 +501,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -512,8 +528,13 @@
       <c r="J5" s="5"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -528,8 +549,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -544,8 +570,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -569,8 +600,13 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -602,12 +638,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -620,7 +656,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -639,7 +675,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -655,7 +691,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -668,7 +704,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
